--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,21 +49,24 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>stopped</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -82,145 +85,154 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>fantastic</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>wedding</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>popcorn</t>
@@ -229,205 +241,205 @@
     <t>dough</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>cookies</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>dish</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>making</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>fast</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>fast</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>lot</t>
+    <t>purchase</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -791,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,10 +811,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -860,13 +872,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -878,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -931,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.946236559139785</v>
@@ -960,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -978,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.8947368421052632</v>
@@ -1010,13 +1022,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3737373737373738</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1028,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1052,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1060,13 +1072,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3643410852713178</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1078,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.868421052631579</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>561</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>561</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1102,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1110,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.34</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -1128,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.855072463768116</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1152,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1160,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3207547169811321</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1178,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.8478260869565217</v>
@@ -1210,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3205128205128205</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1228,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1252,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1260,13 +1272,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1243243243243243</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1278,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7727272727272727</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1302,21 +1314,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>163</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="M12">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1328,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7111111111111111</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1359,16 +1395,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7012987012987013</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L14">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1406,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.671875</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6711864406779661</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6575342465753424</v>
+        <v>0.6644067796610169</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.647887323943662</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>803</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>803</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6326530612244898</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.630016051364366</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L21">
-        <v>785</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>785</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>461</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6296296296296297</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1588,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6029411764705882</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1614,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1640,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L25">
         <v>40</v>
       </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>42</v>
-      </c>
       <c r="M25">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1671,16 +1707,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L26">
         <v>41</v>
       </c>
-      <c r="K26">
-        <v>0.5897435897435898</v>
-      </c>
-      <c r="L26">
-        <v>23</v>
-      </c>
       <c r="M26">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1692,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5789473684210527</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1718,47 +1754,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
+        <v>28</v>
+      </c>
+      <c r="M28">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>20</v>
-      </c>
-      <c r="M28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>15</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5692307692307692</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1770,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5673076923076923</v>
+        <v>0.5625</v>
       </c>
       <c r="L30">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1796,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5641025641025641</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1822,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1848,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5542857142857143</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L33">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1874,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5294117647058824</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1900,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5172413793103449</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1926,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.5149700598802395</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L36">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1952,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5076923076923077</v>
+        <v>0.525</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1978,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.492063492063492</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2004,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.4897959183673469</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2030,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.4871794871794872</v>
+        <v>0.51</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2056,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.4868421052631579</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2082,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.4861111111111111</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2108,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.4819277108433735</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2134,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.4661654135338346</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L44">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2160,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.4615384615384616</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L45">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2186,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4545454545454545</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2212,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47">
         <v>0.4444444444444444</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2238,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.44</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2264,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.4390243902439024</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2290,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.4166666666666667</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2316,21 +2352,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.4156626506024096</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L51">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2342,15 +2378,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L52">
         <v>16</v>
@@ -2368,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.3970588235294117</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2394,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.3947368421052632</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2420,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.3829787234042553</v>
+        <v>0.375</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2446,12 +2482,12 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K56">
         <v>0.3709677419354839</v>
@@ -2477,16 +2513,16 @@
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.3666666666666666</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2498,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.3650793650793651</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2524,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.360655737704918</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2550,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>39</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.3571428571428572</v>
+        <v>0.3501945525291829</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2576,21 +2612,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>36</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.3529411764705883</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L61">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2602,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>264</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.3478260869565217</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2628,21 +2664,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.3454545454545455</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2654,21 +2690,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.3423423423423423</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L64">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2680,21 +2716,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.3267326732673267</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L65">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2706,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.3190661478599222</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L66">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2732,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>175</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.3136986301369863</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L67">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2758,21 +2794,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>501</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.3095238095238095</v>
+        <v>0.3068493150684932</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2784,21 +2820,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>58</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.302158273381295</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L69">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M69">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2810,21 +2846,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>97</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.2913907284768212</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L70">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2836,21 +2872,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.2777777777777778</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L71">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2862,21 +2898,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.2706766917293233</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2888,21 +2924,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.2522522522522522</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M73">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2914,21 +2950,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.2508073196986007</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L74">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="M74">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2940,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>696</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.25</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2966,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>54</v>
+        <v>697</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.2488038277511962</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L76">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M76">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2992,21 +3028,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.2282608695652174</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L77">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M77">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3018,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.2272727272727273</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3044,21 +3080,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.2214765100671141</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L79">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M79">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3070,21 +3106,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.219047619047619</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M80">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3096,41 +3132,41 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.2123893805309734</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L81">
         <v>24</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.2117647058823529</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L82">
         <v>18</v>
@@ -3148,21 +3184,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.2</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3174,21 +3210,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>68</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.2</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3200,21 +3236,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.1933774834437086</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L85">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3226,21 +3262,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>609</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.1912225705329154</v>
+        <v>0.1879795396419437</v>
       </c>
       <c r="L86">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="M86">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3252,21 +3288,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>258</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.1892583120204604</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L87">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="M87">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3278,21 +3314,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>634</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.188034188034188</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L88">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M88">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3304,21 +3340,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.1827956989247312</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3335,16 +3371,16 @@
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.1818181818181818</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3356,21 +3392,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.1807228915662651</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L91">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M91">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3382,47 +3418,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.1769230769230769</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L92">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M92">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>107</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>0.1743119266055046</v>
+        <v>0.16</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3434,47 +3470,47 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.1653116531165312</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L94">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="M94">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="N94">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>308</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.1585365853658537</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="L95">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M95">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3486,21 +3522,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.1533742331288344</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L96">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M96">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3512,21 +3548,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>138</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.1386363636363636</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L97">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M97">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3538,47 +3574,47 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>379</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.1336515513126492</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L98">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M98">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>363</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.1313868613138686</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L99">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M99">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3590,21 +3626,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>357</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.1293859649122807</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L100">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M100">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3616,21 +3652,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.1282051282051282</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="L101">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M101">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3642,21 +3678,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.1259259259259259</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="L102">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M102">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3668,21 +3704,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>236</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.1242937853107345</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L103">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M103">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3694,21 +3730,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.124031007751938</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="L104">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M104">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3720,21 +3756,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>113</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.1237113402061856</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L105">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M105">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3746,21 +3782,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>255</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.1217712177121771</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L106">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M106">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3772,21 +3808,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>238</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.1182266009852217</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L107">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M107">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3798,21 +3834,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.1111111111111111</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L108">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3824,21 +3860,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>136</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.09677419354838709</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L109">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M109">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3850,21 +3886,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>224</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.09663865546218488</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L110">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M110">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3876,21 +3912,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>215</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.09090909090909091</v>
+        <v>0.09965635738831616</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M111">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3902,73 +3938,73 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>150</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K112">
-        <v>0.08653846153846154</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L112">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K113">
-        <v>0.07563025210084033</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L113">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M113">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N113">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>990</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K114">
-        <v>0.07103825136612021</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L114">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M114">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3980,21 +4016,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>340</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K115">
-        <v>0.07020057306590258</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="L115">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M115">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4006,73 +4042,73 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>649</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K116">
-        <v>0.05882352941176471</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L116">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="M116">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>256</v>
+        <v>993</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K117">
-        <v>0.0583756345177665</v>
+        <v>0.0703012912482066</v>
       </c>
       <c r="L117">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M117">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>371</v>
+        <v>648</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K118">
-        <v>0.05374280230326296</v>
+        <v>0.06839186691312385</v>
       </c>
       <c r="L118">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M118">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N118">
         <v>0.97</v>
@@ -4084,21 +4120,21 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K119">
-        <v>0.05350553505535055</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L119">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M119">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4110,111 +4146,189 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>513</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K120">
-        <v>0.04683195592286502</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L120">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M120">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N120">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>346</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K121">
-        <v>0.04368932038834952</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L121">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M121">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N121">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O121">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K122">
-        <v>0.04238754325259515</v>
+        <v>0.05067567567567568</v>
       </c>
       <c r="L122">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M122">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N122">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="O122">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>1107</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K123">
-        <v>0.02745098039215686</v>
+        <v>0.04709141274238227</v>
       </c>
       <c r="L123">
+        <v>17</v>
+      </c>
+      <c r="M123">
         <v>21</v>
       </c>
-      <c r="M123">
-        <v>23</v>
-      </c>
       <c r="N123">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O123">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>744</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K124">
+        <v>0.04509973980919341</v>
+      </c>
+      <c r="L124">
+        <v>52</v>
+      </c>
+      <c r="M124">
+        <v>56</v>
+      </c>
+      <c r="N124">
+        <v>0.93</v>
+      </c>
+      <c r="O124">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K125">
+        <v>0.03838771593090211</v>
+      </c>
+      <c r="L125">
+        <v>20</v>
+      </c>
+      <c r="M125">
+        <v>21</v>
+      </c>
+      <c r="N125">
+        <v>0.95</v>
+      </c>
+      <c r="O125">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="126" spans="10:17">
+      <c r="J126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K126">
+        <v>0.02219321148825065</v>
+      </c>
+      <c r="L126">
+        <v>17</v>
+      </c>
+      <c r="M126">
+        <v>18</v>
+      </c>
+      <c r="N126">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O126">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P126" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
